--- a/01_Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW127_wt_pct.xlsx
+++ b/01_Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW127_wt_pct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ywu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6A452C-9273-374A-B228-A0EC2E6FB61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7175B7-D078-C842-ABF1-BB1856BBAF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="920" windowWidth="37480" windowHeight="21100" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44880" yWindow="2440" windowWidth="37420" windowHeight="21100" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pitting Potential_clean" sheetId="19" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="8">
   <si>
     <t>Fe</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>microstructure</t>
+  </si>
+  <si>
+    <t>FCC</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1504,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1565,6 +1571,12 @@
     </xf>
     <xf numFmtId="2" fontId="13" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="1104" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1108">
@@ -3015,11 +3027,11 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79995117038483843"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:F70"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3028,10 +3040,11 @@
     <col min="2" max="2" width="20.83203125" style="22" customWidth="1"/>
     <col min="3" max="5" width="20.83203125" style="23" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="16"/>
+    <col min="7" max="7" width="14.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3050,8 +3063,11 @@
       <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -3070,8 +3086,11 @@
       <c r="F2" s="11">
         <v>11.913838870171912</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3090,8 +3109,11 @@
       <c r="F3" s="15">
         <v>12.526436533163171</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3110,8 +3132,11 @@
       <c r="F4" s="15">
         <v>13.141335159652224</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3130,8 +3155,11 @@
       <c r="F5" s="15">
         <v>13.201379237435992</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3150,8 +3178,11 @@
       <c r="F6" s="15">
         <v>12.908227548543675</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3170,8 +3201,11 @@
       <c r="F7" s="15">
         <v>14.402837924440945</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3190,8 +3224,11 @@
       <c r="F8" s="15">
         <v>15.469400151603633</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3210,8 +3247,11 @@
       <c r="F9" s="15">
         <v>16.076077758917375</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3230,8 +3270,11 @@
       <c r="F10" s="15">
         <v>16.562605568346225</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3250,8 +3293,11 @@
       <c r="F11" s="15">
         <v>16.736788720454079</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3270,8 +3316,11 @@
       <c r="F12" s="15">
         <v>16.630417904339239</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3290,8 +3339,11 @@
       <c r="F13" s="15">
         <v>15.959386941320483</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3310,8 +3362,11 @@
       <c r="F14" s="15">
         <v>16.779898409338713</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3330,8 +3385,11 @@
       <c r="F15" s="15">
         <v>18.241206846991961</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3350,8 +3408,11 @@
       <c r="F16" s="15">
         <v>19.400478006935572</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3370,8 +3431,11 @@
       <c r="F17" s="15">
         <v>20.321100834211162</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3390,8 +3454,11 @@
       <c r="F18" s="15">
         <v>21.086839747331442</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3410,8 +3477,11 @@
       <c r="F19" s="15">
         <v>21.440556076911189</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3430,8 +3500,11 @@
       <c r="F20" s="15">
         <v>20.523443560166996</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3450,8 +3523,11 @@
       <c r="F21" s="15">
         <v>19.830708524523473</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3470,8 +3546,11 @@
       <c r="F22" s="15">
         <v>18.384691100776919</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3490,8 +3569,11 @@
       <c r="F23" s="15">
         <v>20.919281130415094</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3510,8 +3592,11 @@
       <c r="F24" s="15">
         <v>22.893862554164059</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3530,8 +3615,11 @@
       <c r="F25" s="15">
         <v>24.425663779860997</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3550,8 +3638,11 @@
       <c r="F26" s="15">
         <v>25.695092845663304</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3570,8 +3661,11 @@
       <c r="F27" s="15">
         <v>26.067095863045342</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3590,8 +3684,11 @@
       <c r="F28" s="15">
         <v>26.341888306886379</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3610,8 +3707,11 @@
       <c r="F29" s="15">
         <v>25.427630254522644</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3630,8 +3730,11 @@
       <c r="F30" s="15">
         <v>23.778956108366451</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3650,8 +3753,11 @@
       <c r="F31" s="15">
         <v>22.250068077711195</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3670,8 +3776,11 @@
       <c r="F32" s="15">
         <v>26.161321627252082</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3690,8 +3799,11 @@
       <c r="F33" s="15">
         <v>28.386061147704854</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3710,8 +3822,11 @@
       <c r="F34" s="15">
         <v>30.129062227549575</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3730,8 +3845,11 @@
       <c r="F35" s="15">
         <v>31.209555866385141</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3750,8 +3868,11 @@
       <c r="F36" s="15">
         <v>32.573695160818275</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3770,8 +3891,11 @@
       <c r="F37" s="15">
         <v>31.686390934349795</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3790,8 +3914,11 @@
       <c r="F38" s="15">
         <v>31.232436622423283</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3810,8 +3937,11 @@
       <c r="F39" s="15">
         <v>29.129391226740054</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3830,8 +3960,11 @@
       <c r="F40" s="15">
         <v>26.207027851899788</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3850,8 +3983,11 @@
       <c r="F41" s="15">
         <v>32.684914368449704</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3870,8 +4006,11 @@
       <c r="F42" s="15">
         <v>35.102750747909099</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3890,8 +4029,11 @@
       <c r="F43" s="15">
         <v>37.150074815506322</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3910,8 +4052,11 @@
       <c r="F44" s="15">
         <v>38.52296375476049</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3930,8 +4075,11 @@
       <c r="F45" s="15">
         <v>38.649012549958094</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3950,8 +4098,11 @@
       <c r="F46" s="15">
         <v>38.464189851188337</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3970,8 +4121,11 @@
       <c r="F47" s="15">
         <v>36.75000840091402</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3990,8 +4144,11 @@
       <c r="F48" s="15">
         <v>34.3818674415215</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4010,8 +4167,11 @@
       <c r="F49" s="15">
         <v>30.66708173687493</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4030,8 +4190,11 @@
       <c r="F50" s="15">
         <v>39.949865530298005</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4050,8 +4213,11 @@
       <c r="F51" s="15">
         <v>42.951405551010339</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4070,8 +4236,11 @@
       <c r="F52" s="15">
         <v>44.849136223005878</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4090,8 +4259,11 @@
       <c r="F53" s="15">
         <v>45.622679613185525</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G53" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4110,8 +4282,11 @@
       <c r="F54" s="15">
         <v>45.691951120825308</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G54" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4130,8 +4305,11 @@
       <c r="F55" s="15">
         <v>44.76444883044298</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4150,8 +4328,11 @@
       <c r="F56" s="15">
         <v>43.238682198699934</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4170,8 +4351,11 @@
       <c r="F57" s="15">
         <v>40.276588583533403</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4190,8 +4374,11 @@
       <c r="F58" s="15">
         <v>36.892042123515701</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4210,8 +4397,11 @@
       <c r="F59" s="15">
         <v>51.484589832309624</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4230,8 +4420,11 @@
       <c r="F60" s="15">
         <v>52.687664517723945</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4250,8 +4443,11 @@
       <c r="F61" s="15">
         <v>53.383792194955468</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4270,8 +4466,11 @@
       <c r="F62" s="15">
         <v>52.802708767407871</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4290,8 +4489,11 @@
       <c r="F63" s="15">
         <v>51.157650023792925</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4310,8 +4512,11 @@
       <c r="F64" s="15">
         <v>50.178348683467291</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4330,8 +4535,11 @@
       <c r="F65" s="15">
         <v>45.945905144650098</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4350,8 +4558,11 @@
       <c r="F66" s="15">
         <v>60.706555020240017</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4370,8 +4581,11 @@
       <c r="F67" s="15">
         <v>60.827885977867666</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4390,8 +4604,11 @@
       <c r="F68" s="15">
         <v>59.990274730194535</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4410,8 +4627,11 @@
       <c r="F69" s="15">
         <v>58.185880113645226</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>68</v>
       </c>
@@ -4429,6 +4649,9 @@
       </c>
       <c r="F70" s="19">
         <v>55.460678733278847</v>
+      </c>
+      <c r="G70" s="26" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
